--- a/graphs/graphs.xlsx
+++ b/graphs/graphs.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTDD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTDD\Desktop\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66503BF-904E-4201-8B2F-0C1D06F082BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC64A30-E06D-4928-B2AE-51B6BF688C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{749741F1-CA27-43DA-9621-93DA0DB35C7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{749741F1-CA27-43DA-9621-93DA0DB35C7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="InitialPerformance" sheetId="1" r:id="rId1"/>
+    <sheet name="Sparsity" sheetId="2" r:id="rId2"/>
+    <sheet name="Scaling" sheetId="3" r:id="rId3"/>
+    <sheet name="CSR vs CSC" sheetId="5" r:id="rId4"/>
+    <sheet name="Breakdown" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>BLAS</t>
   </si>
@@ -57,6 +61,78 @@
   </si>
   <si>
     <t>Log CPU</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Sparse 90</t>
+  </si>
+  <si>
+    <t>Sparse 95</t>
+  </si>
+  <si>
+    <t>Sparse 99</t>
+  </si>
+  <si>
+    <t>For speed breakdown, we're gonna run 80% sparse and n = 5000</t>
+  </si>
+  <si>
+    <t>Initialization Time</t>
+  </si>
+  <si>
+    <t>Computation Time</t>
+  </si>
+  <si>
+    <t>Writing Time</t>
+  </si>
+  <si>
+    <t>Cleanup Time</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Lda</t>
+  </si>
+  <si>
+    <t>Number of Threads per block</t>
+  </si>
+  <si>
+    <t>Log of sizes</t>
+  </si>
+  <si>
+    <t>Log of CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparse 90 </t>
+  </si>
+  <si>
+    <t>Need to compute the strong scaling efficiency</t>
+  </si>
+  <si>
+    <t>Strong scaling is speedup/p, and speedup is t (1) divided by t(p)</t>
+  </si>
+  <si>
+    <t>Speed up</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size </t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>CSC</t>
+  </si>
+  <si>
+    <t>These are run on sparse 80% matrices</t>
   </si>
 </sst>
 </file>
@@ -92,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,7 +300,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:f>InitialPerformance!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -265,7 +342,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$13</c:f>
+              <c:f>InitialPerformance!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -344,7 +421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:f>InitialPerformance!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -389,7 +466,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$14</c:f>
+              <c:f>InitialPerformance!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -471,7 +548,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:f>InitialPerformance!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -486,7 +563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:f>InitialPerformance!$D$3:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -991,7 +1068,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$14</c:f>
+              <c:f>InitialPerformance!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1036,7 +1113,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$14</c:f>
+              <c:f>InitialPerformance!$J$3:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1162,7 +1239,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$13</c:f>
+              <c:f>InitialPerformance!$G$3:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1204,7 +1281,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$13</c:f>
+              <c:f>InitialPerformance!$H$3:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1283,7 +1360,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$4</c:f>
+              <c:f>InitialPerformance!$G$3:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1298,7 +1375,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$4</c:f>
+              <c:f>InitialPerformance!$I$3:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1649,6 +1726,4111 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on Different Sparsities</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparsity!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparsity!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9014-4706-BE36-68A063997592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>90% Sparse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparsity!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparsity!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>130.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9014-4706-BE36-68A063997592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>95% Sparse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparsity!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparsity!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.380000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9014-4706-BE36-68A063997592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>99% Sparse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparsity!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparsity!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9014-4706-BE36-68A063997592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="996083632"/>
+        <c:axId val="996085552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="996083632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LDA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996085552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="996085552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996083632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log Log</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance for Sparse Matrices</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparsity!$H$3:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7403626894942437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8129133566428557</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9294189257142929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9777236052888476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparsity!$I$3:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1.5228787452803376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.88605664769316317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6020599913279624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.22184874961635639</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8185861746161619E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30319605742048883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50514997831990605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67577834167408513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83122969386706336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96848294855393513</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0916669575956846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2043913319192998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3083509485867257</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4056877866727775</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4962375451667353</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5792117802314991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6577249542051082</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7325545798514321</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8021577531869615</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8692317197309762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4AE-4001-9BC5-969B9E6869BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sparse 90</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparsity!$H$3:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7403626894942437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8129133566428557</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9294189257142929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9777236052888476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparsity!$J$3:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.769551078621726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1549019599857431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0969100130080565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.85387196432176193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.58502665202918203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.22184874961635639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9181246047624818E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32633586092875144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5428254269591799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74585519517372889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92376196082870032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.086003705618382</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.236033147117636</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3727279408855955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4996870826184039</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6181527333785195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7290837570436119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8344842853348053</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9328794578237993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0263289387223491</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1147443875451262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F4AE-4001-9BC5-969B9E6869BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Sparse 95</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparsity!$H$3:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7403626894942437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8129133566428557</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9294189257142929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9777236052888476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparsity!$K$3:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.79588001734407521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2218487496163564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2218487496163564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.95860731484177497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.85387196432176193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.65757731917779372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.38721614328026455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.18708664335714442</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19865708695442263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36735592102601899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52244423350631986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66745295288995399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79865064544526898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91960102378411102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0350292822023681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1427022457376157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2494429614425822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3455697560563922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4367985102318035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5234863323432279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F4AE-4001-9BC5-969B9E6869BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Sparse 99</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparsity!$H$3:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7403626894942437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8129133566428557</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9294189257142929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9777236052888476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparsity!$L$3:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.74472749489669399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2218487496163564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0969100130080565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.92081875395237522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.82390874094431876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.65757731917779372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.58502665202918203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.46852108295774486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.30980391997148632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.20760831050174613</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.13076828026902382</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.6212172654444715E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1392685158225077E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11058971029924898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19865708695442263</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26481782300953649</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33041377334919086</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38738982633872943</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44247976906444858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F4AE-4001-9BC5-969B9E6869BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1364855616"/>
+        <c:axId val="1364857536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1364855616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log of LDA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1364857536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1364857536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log of Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1364855616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Strong Scaling Efficiency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for 80% Sparse Matrix</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LDA 100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Scaling!$R$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Scaling!$R$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85714285714285698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21428571428571425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3571428571428562E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.859375E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6D60-4347-B365-14F7320533CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LDA 500</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Scaling!$R$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Scaling!$R$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.59375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5486111111111119E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6D60-4347-B365-14F7320533CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LDA 1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Scaling!$R$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Scaling!$R$9:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4398148148148147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48593749999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3939144736842105E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6D60-4347-B365-14F7320533CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1364855616"/>
+        <c:axId val="1364857536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1364855616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nunmber of Threads per Block</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1364857536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1364857536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strong</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Scaling Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1364855616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of CSR vs CSC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CSR-CSR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CSR vs CSC'!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CSR vs CSC'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>284.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>491.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>797.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2038-4E52-99C0-8F6837702D6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CSR-CSC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CSR vs CSC'!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CSR vs CSC'!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>133.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>222.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2038-4E52-99C0-8F6837702D6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1362608880"/>
+        <c:axId val="1362600240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1362608880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> LDA</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362600240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1362600240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Performance (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362608880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Breakdown of GPU Parallelization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25210008795629518"/>
+          <c:y val="3.240755177879992E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Breakdown!$C$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Initialization Time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Computation Time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Writing Time</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cleanup Time</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Breakdown!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.2615400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>16.839200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.1447000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>18.112204000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6A4-4BD1-B31B-D298615876D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2500</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Breakdown!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.1233500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.2016500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>6.1600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.3256310000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6A4-4BD1-B31B-D298615876D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Breakdown!$C$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.1536900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>6.4509999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.6600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.2185800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C6A4-4BD1-B31B-D298615876D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="996082672"/>
+        <c:axId val="996083152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="996082672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996083152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="996083152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996082672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1729,6 +5911,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2742,6 +7124,2573 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2801,16 +9750,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295228</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85649</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541693</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>473676</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>185350</xdr:rowOff>
+      <xdr:colOff>165992</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2830,6 +9779,208 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>140017</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46E9219-93F3-CCA3-2183-4043C18883B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC441DE-EE87-0C72-E601-EAA06D35BC92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A2DC2D-66F5-4CB2-9925-300AF0D43BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFE5FF9-6711-575D-2C2E-AD46A989F15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D767C7E-8D86-7B1F-CEF0-C4B319110040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3157,18 +10308,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA0F7E8-50D3-4FA9-9EE9-ADAB486764B1}">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>100</v>
       </c>
@@ -3224,7 +10375,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>500</v>
       </c>
@@ -3242,7 +10393,7 @@
         <v>2.6989700043360187</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H14" si="1">LOG10(C4)</f>
+        <f t="shared" ref="H4:H13" si="1">LOG10(C4)</f>
         <v>-0.3010299956639812</v>
       </c>
       <c r="I4">
@@ -3254,7 +10405,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1000</v>
       </c>
@@ -3277,7 +10428,7 @@
         <v>-1.3979400086720375</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1500</v>
       </c>
@@ -3300,7 +10451,7 @@
         <v>-0.88605664769316317</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2000</v>
       </c>
@@ -3323,7 +10474,7 @@
         <v>-0.52287874528033762</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2500</v>
       </c>
@@ -3346,7 +10497,7 @@
         <v>-0.22914798835785583</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3000</v>
       </c>
@@ -3369,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3500</v>
       </c>
@@ -3392,7 +10543,7 @@
         <v>0.20411998265592479</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4000</v>
       </c>
@@ -3415,7 +10566,7 @@
         <v>0.37657695705651195</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4500</v>
       </c>
@@ -3438,7 +10589,7 @@
         <v>0.52762990087133865</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5000</v>
       </c>
@@ -3461,7 +10612,7 @@
         <v>0.66651798055488087</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>6000</v>
       </c>
@@ -3477,7 +10628,7 @@
         <v>1.0060379549973173</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>5500</v>
       </c>
@@ -3491,6 +10642,1949 @@
       <c r="J15">
         <f t="shared" si="2"/>
         <v>2.5347746820147736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6494DAD2-46C9-4EE0-B9E9-7220D9BD613C}">
+  <dimension ref="B2:L23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" activeCellId="1" sqref="H3:H23 I3:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>0.17</v>
+      </c>
+      <c r="E3">
+        <v>0.16</v>
+      </c>
+      <c r="F3">
+        <v>0.18</v>
+      </c>
+      <c r="H3">
+        <f>LOG10(B3)</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>LOG10(C3)</f>
+        <v>-1.5228787452803376</v>
+      </c>
+      <c r="J3">
+        <f>LOG10(D3)</f>
+        <v>-0.769551078621726</v>
+      </c>
+      <c r="K3">
+        <f>LOG10(E3)</f>
+        <v>-0.79588001734407521</v>
+      </c>
+      <c r="L3">
+        <f>LOG10(F3)</f>
+        <v>-0.74472749489669399</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.06</v>
+      </c>
+      <c r="F4">
+        <v>0.06</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H23" si="0">LOG10(B4)</f>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="I4">
+        <f>LOG10(C4)</f>
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="J4">
+        <f>LOG10(D4)</f>
+        <v>-1.1549019599857431</v>
+      </c>
+      <c r="K4">
+        <f>LOG10(E4)</f>
+        <v>-1.2218487496163564</v>
+      </c>
+      <c r="L4">
+        <f>LOG10(F4)</f>
+        <v>-1.2218487496163564</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>0.13</v>
+      </c>
+      <c r="D5">
+        <v>0.08</v>
+      </c>
+      <c r="E5">
+        <v>0.06</v>
+      </c>
+      <c r="F5">
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f>LOG10(C5)</f>
+        <v>-0.88605664769316317</v>
+      </c>
+      <c r="J5">
+        <f>LOG10(D5)</f>
+        <v>-1.0969100130080565</v>
+      </c>
+      <c r="K5">
+        <f>LOG10(E5)</f>
+        <v>-1.2218487496163564</v>
+      </c>
+      <c r="L5">
+        <f>LOG10(F5)</f>
+        <v>-1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.11</v>
+      </c>
+      <c r="F6">
+        <v>0.08</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3.1760912590556813</v>
+      </c>
+      <c r="I6">
+        <f>LOG10(C6)</f>
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="J6">
+        <f>LOG10(D6)</f>
+        <v>-0.85387196432176193</v>
+      </c>
+      <c r="K6">
+        <f>LOG10(E6)</f>
+        <v>-0.95860731484177497</v>
+      </c>
+      <c r="L6">
+        <f>LOG10(F6)</f>
+        <v>-1.0969100130080565</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>0.26</v>
+      </c>
+      <c r="E7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="I7">
+        <f>LOG10(C7)</f>
+        <v>-0.22184874961635639</v>
+      </c>
+      <c r="J7">
+        <f>LOG10(D7)</f>
+        <v>-0.58502665202918203</v>
+      </c>
+      <c r="K7">
+        <f>LOG10(E7)</f>
+        <v>-0.85387196432176193</v>
+      </c>
+      <c r="L7">
+        <f>LOG10(F7)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2500</v>
+      </c>
+      <c r="C8">
+        <v>1.17</v>
+      </c>
+      <c r="D8">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>0.22</v>
+      </c>
+      <c r="F8">
+        <v>0.12</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3.3979400086720375</v>
+      </c>
+      <c r="I8">
+        <f>LOG10(C8)</f>
+        <v>6.8185861746161619E-2</v>
+      </c>
+      <c r="J8">
+        <f>LOG10(D8)</f>
+        <v>-0.22184874961635639</v>
+      </c>
+      <c r="K8">
+        <f>LOG10(E8)</f>
+        <v>-0.65757731917779372</v>
+      </c>
+      <c r="L8">
+        <f>LOG10(F8)</f>
+        <v>-0.92081875395237522</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3000</v>
+      </c>
+      <c r="C9">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9">
+        <v>0.41</v>
+      </c>
+      <c r="F9">
+        <v>0.15</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="I9">
+        <f>LOG10(C9)</f>
+        <v>0.30319605742048883</v>
+      </c>
+      <c r="J9">
+        <f>LOG10(D9)</f>
+        <v>7.9181246047624818E-2</v>
+      </c>
+      <c r="K9">
+        <f>LOG10(E9)</f>
+        <v>-0.38721614328026455</v>
+      </c>
+      <c r="L9">
+        <f>LOG10(F9)</f>
+        <v>-0.82390874094431876</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3500</v>
+      </c>
+      <c r="C10">
+        <v>3.2</v>
+      </c>
+      <c r="D10">
+        <v>2.12</v>
+      </c>
+      <c r="E10">
+        <v>0.65</v>
+      </c>
+      <c r="F10">
+        <v>0.22</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.5440680443502757</v>
+      </c>
+      <c r="I10">
+        <f>LOG10(C10)</f>
+        <v>0.50514997831990605</v>
+      </c>
+      <c r="J10">
+        <f>LOG10(D10)</f>
+        <v>0.32633586092875144</v>
+      </c>
+      <c r="K10">
+        <f>LOG10(E10)</f>
+        <v>-0.18708664335714442</v>
+      </c>
+      <c r="L10">
+        <f>LOG10(F10)</f>
+        <v>-0.65757731917779372</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4000</v>
+      </c>
+      <c r="C11">
+        <v>4.74</v>
+      </c>
+      <c r="D11">
+        <v>3.49</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.26</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="I11">
+        <f>LOG10(C11)</f>
+        <v>0.67577834167408513</v>
+      </c>
+      <c r="J11">
+        <f>LOG10(D11)</f>
+        <v>0.5428254269591799</v>
+      </c>
+      <c r="K11">
+        <f>LOG10(E11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>LOG10(F11)</f>
+        <v>-0.58502665202918203</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>4500</v>
+      </c>
+      <c r="C12">
+        <v>6.78</v>
+      </c>
+      <c r="D12">
+        <v>5.57</v>
+      </c>
+      <c r="E12">
+        <v>1.58</v>
+      </c>
+      <c r="F12">
+        <v>0.34</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3.6532125137753435</v>
+      </c>
+      <c r="I12">
+        <f>LOG10(C12)</f>
+        <v>0.83122969386706336</v>
+      </c>
+      <c r="J12">
+        <f>LOG10(D12)</f>
+        <v>0.74585519517372889</v>
+      </c>
+      <c r="K12">
+        <f>LOG10(E12)</f>
+        <v>0.19865708695442263</v>
+      </c>
+      <c r="L12">
+        <f>LOG10(F12)</f>
+        <v>-0.46852108295774486</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5000</v>
+      </c>
+      <c r="C13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D13">
+        <v>8.39</v>
+      </c>
+      <c r="E13">
+        <v>2.33</v>
+      </c>
+      <c r="F13">
+        <v>0.49</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="I13">
+        <f>LOG10(C13)</f>
+        <v>0.96848294855393513</v>
+      </c>
+      <c r="J13">
+        <f>LOG10(D13)</f>
+        <v>0.92376196082870032</v>
+      </c>
+      <c r="K13">
+        <f>LOG10(E13)</f>
+        <v>0.36735592102601899</v>
+      </c>
+      <c r="L13">
+        <f>LOG10(F13)</f>
+        <v>-0.30980391997148632</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5500</v>
+      </c>
+      <c r="C14">
+        <v>12.35</v>
+      </c>
+      <c r="D14">
+        <v>12.19</v>
+      </c>
+      <c r="E14">
+        <v>3.33</v>
+      </c>
+      <c r="F14">
+        <v>0.62</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3.7403626894942437</v>
+      </c>
+      <c r="I14">
+        <f>LOG10(C14)</f>
+        <v>1.0916669575956846</v>
+      </c>
+      <c r="J14">
+        <f>LOG10(D14)</f>
+        <v>1.086003705618382</v>
+      </c>
+      <c r="K14">
+        <f>LOG10(E14)</f>
+        <v>0.52244423350631986</v>
+      </c>
+      <c r="L14">
+        <f>LOG10(F14)</f>
+        <v>-0.20760831050174613</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>6000</v>
+      </c>
+      <c r="C15">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="D15">
+        <v>17.22</v>
+      </c>
+      <c r="E15">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F15">
+        <v>0.74</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3.7781512503836434</v>
+      </c>
+      <c r="I15">
+        <f>LOG10(C15)</f>
+        <v>1.2043913319192998</v>
+      </c>
+      <c r="J15">
+        <f>LOG10(D15)</f>
+        <v>1.236033147117636</v>
+      </c>
+      <c r="K15">
+        <f>LOG10(E15)</f>
+        <v>0.66745295288995399</v>
+      </c>
+      <c r="L15">
+        <f>LOG10(F15)</f>
+        <v>-0.13076828026902382</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>6500</v>
+      </c>
+      <c r="C16">
+        <v>20.34</v>
+      </c>
+      <c r="D16">
+        <v>23.59</v>
+      </c>
+      <c r="E16">
+        <v>6.29</v>
+      </c>
+      <c r="F16">
+        <v>0.92</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3.8129133566428557</v>
+      </c>
+      <c r="I16">
+        <f>LOG10(C16)</f>
+        <v>1.3083509485867257</v>
+      </c>
+      <c r="J16">
+        <f>LOG10(D16)</f>
+        <v>1.3727279408855955</v>
+      </c>
+      <c r="K16">
+        <f>LOG10(E16)</f>
+        <v>0.79865064544526898</v>
+      </c>
+      <c r="L16">
+        <f>LOG10(F16)</f>
+        <v>-3.6212172654444715E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>7000</v>
+      </c>
+      <c r="C17">
+        <v>25.45</v>
+      </c>
+      <c r="D17">
+        <v>31.6</v>
+      </c>
+      <c r="E17">
+        <v>8.31</v>
+      </c>
+      <c r="F17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>3.8450980400142569</v>
+      </c>
+      <c r="I17">
+        <f>LOG10(C17)</f>
+        <v>1.4056877866727775</v>
+      </c>
+      <c r="J17">
+        <f>LOG10(D17)</f>
+        <v>1.4996870826184039</v>
+      </c>
+      <c r="K17">
+        <f>LOG10(E17)</f>
+        <v>0.91960102378411102</v>
+      </c>
+      <c r="L17">
+        <f>LOG10(F17)</f>
+        <v>4.1392685158225077E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>7500</v>
+      </c>
+      <c r="C18">
+        <v>31.35</v>
+      </c>
+      <c r="D18">
+        <v>41.51</v>
+      </c>
+      <c r="E18">
+        <v>10.84</v>
+      </c>
+      <c r="F18">
+        <v>1.29</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3.8750612633917001</v>
+      </c>
+      <c r="I18">
+        <f>LOG10(C18)</f>
+        <v>1.4962375451667353</v>
+      </c>
+      <c r="J18">
+        <f>LOG10(D18)</f>
+        <v>1.6181527333785195</v>
+      </c>
+      <c r="K18">
+        <f>LOG10(E18)</f>
+        <v>1.0350292822023681</v>
+      </c>
+      <c r="L18">
+        <f>LOG10(F18)</f>
+        <v>0.11058971029924898</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>8000</v>
+      </c>
+      <c r="C19">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="D19">
+        <v>53.59</v>
+      </c>
+      <c r="E19">
+        <v>13.89</v>
+      </c>
+      <c r="F19">
+        <v>1.58</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3.9030899869919438</v>
+      </c>
+      <c r="I19">
+        <f>LOG10(C19)</f>
+        <v>1.5792117802314991</v>
+      </c>
+      <c r="J19">
+        <f>LOG10(D19)</f>
+        <v>1.7290837570436119</v>
+      </c>
+      <c r="K19">
+        <f>LOG10(E19)</f>
+        <v>1.1427022457376157</v>
+      </c>
+      <c r="L19">
+        <f>LOG10(F19)</f>
+        <v>0.19865708695442263</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>8500</v>
+      </c>
+      <c r="C20">
+        <v>45.47</v>
+      </c>
+      <c r="D20">
+        <v>68.31</v>
+      </c>
+      <c r="E20">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="F20">
+        <v>1.84</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3.9294189257142929</v>
+      </c>
+      <c r="I20">
+        <f>LOG10(C20)</f>
+        <v>1.6577249542051082</v>
+      </c>
+      <c r="J20">
+        <f>LOG10(D20)</f>
+        <v>1.8344842853348053</v>
+      </c>
+      <c r="K20">
+        <f>LOG10(E20)</f>
+        <v>1.2494429614425822</v>
+      </c>
+      <c r="L20">
+        <f>LOG10(F20)</f>
+        <v>0.26481782300953649</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>9000</v>
+      </c>
+      <c r="C21">
+        <v>54.02</v>
+      </c>
+      <c r="D21">
+        <v>85.68</v>
+      </c>
+      <c r="E21">
+        <v>22.16</v>
+      </c>
+      <c r="F21">
+        <v>2.14</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>3.9542425094393248</v>
+      </c>
+      <c r="I21">
+        <f>LOG10(C21)</f>
+        <v>1.7325545798514321</v>
+      </c>
+      <c r="J21">
+        <f>LOG10(D21)</f>
+        <v>1.9328794578237993</v>
+      </c>
+      <c r="K21">
+        <f>LOG10(E21)</f>
+        <v>1.3455697560563922</v>
+      </c>
+      <c r="L21">
+        <f>LOG10(F21)</f>
+        <v>0.33041377334919086</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>9500</v>
+      </c>
+      <c r="C22">
+        <v>63.41</v>
+      </c>
+      <c r="D22">
+        <v>106.25</v>
+      </c>
+      <c r="E22">
+        <v>27.34</v>
+      </c>
+      <c r="F22">
+        <v>2.44</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>3.9777236052888476</v>
+      </c>
+      <c r="I22">
+        <f>LOG10(C22)</f>
+        <v>1.8021577531869615</v>
+      </c>
+      <c r="J22">
+        <f>LOG10(D22)</f>
+        <v>2.0263289387223491</v>
+      </c>
+      <c r="K22">
+        <f>LOG10(E22)</f>
+        <v>1.4367985102318035</v>
+      </c>
+      <c r="L22">
+        <f>LOG10(F22)</f>
+        <v>0.38738982633872943</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>10000</v>
+      </c>
+      <c r="C23">
+        <v>74</v>
+      </c>
+      <c r="D23">
+        <v>130.24</v>
+      </c>
+      <c r="E23">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="F23">
+        <v>2.77</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <f>LOG10(C23)</f>
+        <v>1.8692317197309762</v>
+      </c>
+      <c r="J23">
+        <f>LOG10(D23)</f>
+        <v>2.1147443875451262</v>
+      </c>
+      <c r="K23">
+        <f>LOG10(E23)</f>
+        <v>1.5234863323432279</v>
+      </c>
+      <c r="L23">
+        <f>LOG10(F23)</f>
+        <v>0.44247976906444858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CC1E24-E7C9-42E9-98C4-5E526E0674E5}">
+  <dimension ref="B2:X17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>128</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>1024</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>128</v>
+      </c>
+      <c r="P6">
+        <v>256</v>
+      </c>
+      <c r="Q6">
+        <v>1024</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>32</v>
+      </c>
+      <c r="V6">
+        <v>256</v>
+      </c>
+      <c r="W6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>0.12</v>
+      </c>
+      <c r="D7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.08</v>
+      </c>
+      <c r="H7">
+        <v>0.08</v>
+      </c>
+      <c r="I7">
+        <v>0.17</v>
+      </c>
+      <c r="K7">
+        <f>C7/C7</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>C7/D7</f>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="M7">
+        <f>C7/E7</f>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="N7">
+        <f>C7/F7</f>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="O7">
+        <f>C7/G7</f>
+        <v>1.5</v>
+      </c>
+      <c r="P7">
+        <f>C7/H7</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q7">
+        <f>C7/I7</f>
+        <v>0.70588235294117641</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>L7/2</f>
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="T7">
+        <f>M7/8</f>
+        <v>0.21428571428571425</v>
+      </c>
+      <c r="U7">
+        <f>N7/32</f>
+        <v>5.3571428571428562E-2</v>
+      </c>
+      <c r="V7">
+        <f>P7/256</f>
+        <v>5.859375E-3</v>
+      </c>
+      <c r="W7">
+        <f>Q7/1024</f>
+        <v>6.8933823529411758E-4</v>
+      </c>
+      <c r="X7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>0.22</v>
+      </c>
+      <c r="D8">
+        <v>0.16</v>
+      </c>
+      <c r="E8">
+        <v>0.09</v>
+      </c>
+      <c r="F8">
+        <v>0.08</v>
+      </c>
+      <c r="G8">
+        <v>0.09</v>
+      </c>
+      <c r="H8">
+        <v>0.09</v>
+      </c>
+      <c r="I8">
+        <v>0.08</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K17" si="0">C8/C8</f>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L14" si="1">C8/D8</f>
+        <v>1.375</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M14" si="2">C8/E8</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N14" si="3">C8/F8</f>
+        <v>2.75</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O14" si="4">C8/G8</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P14" si="5">C8/H8</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q14" si="6">C8/I8</f>
+        <v>2.75</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S15" si="7">L8/2</f>
+        <v>0.6875</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T14" si="8">M8/8</f>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U14" si="9">N8/32</f>
+        <v>8.59375E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8:V14" si="10">P8/256</f>
+        <v>9.5486111111111119E-3</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8:W14" si="11">Q8/1024</f>
+        <v>2.685546875E-3</v>
+      </c>
+      <c r="X8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>3.11</v>
+      </c>
+      <c r="D9">
+        <v>1.08</v>
+      </c>
+      <c r="E9">
+        <v>0.35</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9">
+        <v>0.19</v>
+      </c>
+      <c r="I9">
+        <v>0.16</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>C9/D9</f>
+        <v>2.8796296296296293</v>
+      </c>
+      <c r="M9">
+        <f>C9/E9</f>
+        <v>8.8857142857142861</v>
+      </c>
+      <c r="N9">
+        <f>C9/F9</f>
+        <v>15.549999999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>15.549999999999999</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>16.368421052631579</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>19.4375</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>1.4398148148148147</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>1.1107142857142858</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>0.48593749999999997</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="10"/>
+        <v>6.3939144736842105E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="11"/>
+        <v>1.898193359375E-2</v>
+      </c>
+      <c r="X9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1500</v>
+      </c>
+      <c r="C10">
+        <v>15.3</v>
+      </c>
+      <c r="D10">
+        <v>5.25</v>
+      </c>
+      <c r="E10">
+        <v>1.55</v>
+      </c>
+      <c r="F10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.45</v>
+      </c>
+      <c r="H10">
+        <v>0.45</v>
+      </c>
+      <c r="I10">
+        <v>0.4</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>2.9142857142857146</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>9.870967741935484</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>27.818181818181817</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>38.25</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>1.4571428571428573</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>1.2338709677419355</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>0.86931818181818177</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="10"/>
+        <v>0.1328125</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="11"/>
+        <v>3.7353515625E-2</v>
+      </c>
+      <c r="X10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>45.53</v>
+      </c>
+      <c r="D11">
+        <v>16.32</v>
+      </c>
+      <c r="E11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F11">
+        <v>1.39</v>
+      </c>
+      <c r="G11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I11">
+        <v>1.03</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2.7898284313725492</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>9.8978260869565222</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>32.755395683453237</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>40.651785714285708</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>40.651785714285708</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>44.203883495145632</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>1.3949142156862746</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>1.2372282608695653</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>1.0236061151079137</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="10"/>
+        <v>0.15879603794642855</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="11"/>
+        <v>4.3167854975728157E-2</v>
+      </c>
+      <c r="X11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2500</v>
+      </c>
+      <c r="C12">
+        <v>111.51</v>
+      </c>
+      <c r="D12">
+        <v>39.65</v>
+      </c>
+      <c r="E12">
+        <v>11.17</v>
+      </c>
+      <c r="F12">
+        <v>3.14</v>
+      </c>
+      <c r="G12">
+        <v>2.5</v>
+      </c>
+      <c r="H12">
+        <v>2.5</v>
+      </c>
+      <c r="I12">
+        <v>2.33</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>2.8123581336696093</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>9.9829901521933753</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>35.512738853503187</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>44.603999999999999</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>44.603999999999999</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>47.858369098712444</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>1.4061790668348046</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>1.2478737690241719</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>1.1097730891719746</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>0.174234375</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="11"/>
+        <v>4.6736688572961371E-2</v>
+      </c>
+      <c r="X12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3000</v>
+      </c>
+      <c r="C13">
+        <v>253.87</v>
+      </c>
+      <c r="D13">
+        <v>82.27</v>
+      </c>
+      <c r="E13">
+        <v>22.57</v>
+      </c>
+      <c r="F13">
+        <v>6.3</v>
+      </c>
+      <c r="G13">
+        <v>4.96</v>
+      </c>
+      <c r="H13">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I13">
+        <v>4.63</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>3.0858149993922455</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>11.248116969428445</v>
+      </c>
+      <c r="N13">
+        <f>C13/F13</f>
+        <v>40.296825396825398</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>51.183467741935488</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>51.390688259109311</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>54.83153347732182</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>1.5429074996961227</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>1.4060146211785556</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>1.2592757936507937</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="10"/>
+        <v>0.20074487601214575</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="11"/>
+        <v>5.354641941144709E-2</v>
+      </c>
+      <c r="X13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3500</v>
+      </c>
+      <c r="C14">
+        <v>578.34</v>
+      </c>
+      <c r="D14">
+        <v>152.76</v>
+      </c>
+      <c r="E14">
+        <v>41.84</v>
+      </c>
+      <c r="F14">
+        <v>11.42</v>
+      </c>
+      <c r="G14">
+        <v>8.75</v>
+      </c>
+      <c r="H14">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I14">
+        <v>8.32</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>3.7859387274155543</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>13.82265774378585</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>50.64273204903678</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>66.096000000000004</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>66.323394495412842</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>69.512019230769226</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>1.8929693637077771</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>1.7278322179732313</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>1.5825853765323994</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="10"/>
+        <v>0.25907575974770641</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="11"/>
+        <v>6.7882831280048073E-2</v>
+      </c>
+      <c r="X14">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4000</v>
+      </c>
+      <c r="D15">
+        <v>260.66000000000003</v>
+      </c>
+      <c r="E15">
+        <v>72.25</v>
+      </c>
+      <c r="F15">
+        <v>19.61</v>
+      </c>
+      <c r="G15">
+        <v>14.6</v>
+      </c>
+      <c r="H15">
+        <v>14.53</v>
+      </c>
+      <c r="I15">
+        <v>13.87</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" t="e">
+        <f t="shared" ref="L8:L17" si="12">D15/C15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" t="e">
+        <f t="shared" ref="M8:M17" si="13">E15/C15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4500</v>
+      </c>
+      <c r="D16">
+        <v>623</v>
+      </c>
+      <c r="E16">
+        <v>114.32</v>
+      </c>
+      <c r="F16">
+        <v>31.14</v>
+      </c>
+      <c r="G16">
+        <v>23.35</v>
+      </c>
+      <c r="H16">
+        <v>23.18</v>
+      </c>
+      <c r="I16">
+        <v>22.24</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="D17">
+        <v>1243</v>
+      </c>
+      <c r="E17">
+        <v>175.67</v>
+      </c>
+      <c r="F17">
+        <v>46.47</v>
+      </c>
+      <c r="G17">
+        <v>35.08</v>
+      </c>
+      <c r="H17">
+        <v>35.01</v>
+      </c>
+      <c r="I17">
+        <v>33.54</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268D7F8D-80F4-4870-9F93-B21A64058F27}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>0.18</v>
+      </c>
+      <c r="D6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>1.87</v>
+      </c>
+      <c r="D7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1500</v>
+      </c>
+      <c r="C8">
+        <v>9.35</v>
+      </c>
+      <c r="D8">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>29.49</v>
+      </c>
+      <c r="D9">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2500</v>
+      </c>
+      <c r="C10">
+        <v>72.52</v>
+      </c>
+      <c r="D10">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3000</v>
+      </c>
+      <c r="C11">
+        <v>151.31</v>
+      </c>
+      <c r="D11">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3500</v>
+      </c>
+      <c r="C12">
+        <v>284.98</v>
+      </c>
+      <c r="D12">
+        <v>79.52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4000</v>
+      </c>
+      <c r="C13">
+        <v>491.95</v>
+      </c>
+      <c r="D13">
+        <v>133.51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>4500</v>
+      </c>
+      <c r="C14">
+        <v>797.04</v>
+      </c>
+      <c r="D14">
+        <v>222.05</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4261628F-967E-4596-999C-55439FCE4CED}">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <v>1.2615400000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7E-5</v>
+      </c>
+      <c r="E5">
+        <v>16.839200000000002</v>
+      </c>
+      <c r="F5">
+        <v>1.1447000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <f>SUM(C5:F5)</f>
+        <v>18.112204000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2500</v>
+      </c>
+      <c r="C6">
+        <v>1.1233500000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="E6">
+        <v>1.2016500000000001</v>
+      </c>
+      <c r="F6">
+        <v>6.1600000000000001E-4</v>
+      </c>
+      <c r="G6">
+        <f>SUM(C6:F6)</f>
+        <v>2.3256310000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>1.1536900000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4E-5</v>
+      </c>
+      <c r="E7">
+        <v>6.4509999999999998E-2</v>
+      </c>
+      <c r="F7">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="G7">
+        <f>SUM(C7:F7)</f>
+        <v>1.2185800000000002</v>
       </c>
     </row>
   </sheetData>
